--- a/output/Clustering/fish and scats/find_k_validity_measures_both_clean_PCs.xlsx
+++ b/output/Clustering/fish and scats/find_k_validity_measures_both_clean_PCs.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>2.235</v>
+        <v>1.193</v>
       </c>
       <c r="E2" t="n">
-        <v>1.325</v>
+        <v>3.353</v>
       </c>
       <c r="F2" t="n">
-        <v>1.236</v>
+        <v>3.684</v>
       </c>
       <c r="G2" t="n">
-        <v>0.777</v>
+        <v>0.417</v>
       </c>
       <c r="H2" t="n">
-        <v>5.962</v>
+        <v>6.378</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>2.235</v>
+        <v>1.193</v>
       </c>
       <c r="E3" t="n">
-        <v>4.062</v>
+        <v>2.21</v>
       </c>
       <c r="F3" t="n">
-        <v>3.966</v>
+        <v>2.167</v>
       </c>
       <c r="G3" t="n">
-        <v>0.266</v>
+        <v>0.643</v>
       </c>
       <c r="H3" t="n">
-        <v>5.962</v>
+        <v>6.378</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -471,22 +471,22 @@
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>2.235</v>
+        <v>2.036</v>
       </c>
       <c r="E4" t="n">
-        <v>1.325</v>
+        <v>0.966</v>
       </c>
       <c r="F4" t="n">
-        <v>1.236</v>
+        <v>0.881</v>
       </c>
       <c r="G4" t="n">
-        <v>0.723</v>
+        <v>0.791</v>
       </c>
       <c r="H4" t="n">
-        <v>5.962</v>
+        <v>5.872</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>1.523</v>
+        <v>1.193</v>
       </c>
       <c r="E5" t="n">
-        <v>3.396</v>
+        <v>3.022</v>
       </c>
       <c r="F5" t="n">
-        <v>3.247</v>
+        <v>2.886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.179</v>
+        <v>0.248</v>
       </c>
       <c r="H5" t="n">
-        <v>4.935</v>
+        <v>4.885</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1.523</v>
+        <v>1.193</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381</v>
+        <v>2.21</v>
       </c>
       <c r="F6" t="n">
-        <v>2.282</v>
+        <v>2.167</v>
       </c>
       <c r="G6" t="n">
-        <v>0.502</v>
+        <v>0.557</v>
       </c>
       <c r="H6" t="n">
-        <v>6.305</v>
+        <v>6.378</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -558,19 +558,19 @@
         <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>2.235</v>
+        <v>2.036</v>
       </c>
       <c r="E7" t="n">
-        <v>1.325</v>
+        <v>0.966</v>
       </c>
       <c r="F7" t="n">
-        <v>1.236</v>
+        <v>0.881</v>
       </c>
       <c r="G7" t="n">
-        <v>0.717</v>
+        <v>0.786</v>
       </c>
       <c r="H7" t="n">
-        <v>5.962</v>
+        <v>5.872</v>
       </c>
       <c r="I7" t="n">
         <v>7</v>
@@ -584,22 +584,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>1.587</v>
+        <v>1.193</v>
       </c>
       <c r="E8" t="n">
-        <v>2.591</v>
+        <v>2.228</v>
       </c>
       <c r="F8" t="n">
-        <v>2.518</v>
+        <v>2.279</v>
       </c>
       <c r="G8" t="n">
-        <v>0.332</v>
+        <v>0.386</v>
       </c>
       <c r="H8" t="n">
-        <v>4.934</v>
+        <v>4.824</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -613,22 +613,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>1.523</v>
+        <v>1.193</v>
       </c>
       <c r="E9" t="n">
-        <v>2.381</v>
+        <v>2.21</v>
       </c>
       <c r="F9" t="n">
-        <v>2.282</v>
+        <v>2.167</v>
       </c>
       <c r="G9" t="n">
-        <v>0.457</v>
+        <v>0.517</v>
       </c>
       <c r="H9" t="n">
-        <v>6.305</v>
+        <v>6.378</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
@@ -645,19 +645,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>1.523</v>
+        <v>1.44</v>
       </c>
       <c r="E10" t="n">
-        <v>2.395</v>
+        <v>2.288</v>
       </c>
       <c r="F10" t="n">
-        <v>2.353</v>
+        <v>2.232</v>
       </c>
       <c r="G10" t="n">
-        <v>0.431</v>
+        <v>0.445</v>
       </c>
       <c r="H10" t="n">
-        <v>4.947</v>
+        <v>4.868</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -674,19 +674,19 @@
         <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>2.235</v>
+        <v>2.036</v>
       </c>
       <c r="E11" t="n">
-        <v>1.325</v>
+        <v>0.966</v>
       </c>
       <c r="F11" t="n">
-        <v>1.236</v>
+        <v>0.881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.684</v>
+        <v>0.762</v>
       </c>
       <c r="H11" t="n">
-        <v>5.962</v>
+        <v>5.872</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -703,19 +703,19 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>1.244</v>
+        <v>1.166</v>
       </c>
       <c r="E12" t="n">
-        <v>1.455</v>
+        <v>1.368</v>
       </c>
       <c r="F12" t="n">
-        <v>1.372</v>
+        <v>1.302</v>
       </c>
       <c r="G12" t="n">
-        <v>0.593</v>
+        <v>0.527</v>
       </c>
       <c r="H12" t="n">
-        <v>4.731</v>
+        <v>4.645</v>
       </c>
       <c r="I12" t="n">
         <v>7</v>
@@ -729,22 +729,22 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>1.244</v>
+        <v>1.193</v>
       </c>
       <c r="E13" t="n">
-        <v>2.418</v>
+        <v>2.21</v>
       </c>
       <c r="F13" t="n">
-        <v>2.377</v>
+        <v>2.167</v>
       </c>
       <c r="G13" t="n">
-        <v>0.199</v>
+        <v>0.366</v>
       </c>
       <c r="H13" t="n">
-        <v>4.753</v>
+        <v>6.378</v>
       </c>
       <c r="I13" t="n">
         <v>7</v>
@@ -758,22 +758,22 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>1.523</v>
+        <v>1.44</v>
       </c>
       <c r="E14" t="n">
-        <v>2.381</v>
+        <v>2.288</v>
       </c>
       <c r="F14" t="n">
-        <v>2.282</v>
+        <v>2.232</v>
       </c>
       <c r="G14" t="n">
-        <v>0.343</v>
+        <v>0.422</v>
       </c>
       <c r="H14" t="n">
-        <v>6.305</v>
+        <v>4.868</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
@@ -787,22 +787,22 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>1.523</v>
+        <v>1.166</v>
       </c>
       <c r="E15" t="n">
-        <v>2.395</v>
+        <v>1.833</v>
       </c>
       <c r="F15" t="n">
-        <v>2.353</v>
+        <v>1.839</v>
       </c>
       <c r="G15" t="n">
-        <v>0.419</v>
+        <v>0.304</v>
       </c>
       <c r="H15" t="n">
-        <v>4.947</v>
+        <v>4.355</v>
       </c>
       <c r="I15" t="n">
         <v>7</v>
@@ -819,19 +819,19 @@
         <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>2.235</v>
+        <v>2.036</v>
       </c>
       <c r="E16" t="n">
-        <v>1.325</v>
+        <v>0.966</v>
       </c>
       <c r="F16" t="n">
-        <v>1.236</v>
+        <v>0.881</v>
       </c>
       <c r="G16" t="n">
-        <v>0.684</v>
+        <v>0.762</v>
       </c>
       <c r="H16" t="n">
-        <v>5.962</v>
+        <v>5.872</v>
       </c>
       <c r="I16" t="n">
         <v>7</v>
@@ -848,19 +848,19 @@
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>1.244</v>
+        <v>1.166</v>
       </c>
       <c r="E17" t="n">
-        <v>1.455</v>
+        <v>1.368</v>
       </c>
       <c r="F17" t="n">
-        <v>1.372</v>
+        <v>1.302</v>
       </c>
       <c r="G17" t="n">
-        <v>0.593</v>
+        <v>0.527</v>
       </c>
       <c r="H17" t="n">
-        <v>4.731</v>
+        <v>4.645</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
@@ -874,22 +874,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>1.244</v>
+        <v>0.804</v>
       </c>
       <c r="E18" t="n">
-        <v>2.418</v>
+        <v>2.291</v>
       </c>
       <c r="F18" t="n">
-        <v>2.377</v>
+        <v>2.137</v>
       </c>
       <c r="G18" t="n">
-        <v>0.173</v>
+        <v>0.044</v>
       </c>
       <c r="H18" t="n">
-        <v>4.753</v>
+        <v>5.337</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
@@ -903,22 +903,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>1.32</v>
+        <v>0.804</v>
       </c>
       <c r="E19" t="n">
-        <v>1.544</v>
+        <v>1.274</v>
       </c>
       <c r="F19" t="n">
-        <v>1.573</v>
+        <v>1.201</v>
       </c>
       <c r="G19" t="n">
-        <v>0.473</v>
+        <v>0.491</v>
       </c>
       <c r="H19" t="n">
-        <v>6.449</v>
+        <v>6.342</v>
       </c>
       <c r="I19" t="n">
         <v>7</v>
@@ -932,22 +932,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="E20" t="n">
-        <v>2.015</v>
+        <v>2.288</v>
       </c>
       <c r="F20" t="n">
-        <v>1.827</v>
+        <v>2.232</v>
       </c>
       <c r="G20" t="n">
-        <v>0.209</v>
+        <v>0.417</v>
       </c>
       <c r="H20" t="n">
-        <v>5.062</v>
+        <v>4.868</v>
       </c>
       <c r="I20" t="n">
         <v>7</v>
@@ -961,22 +961,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>1.523</v>
+        <v>1.166</v>
       </c>
       <c r="E21" t="n">
-        <v>2.395</v>
+        <v>1.833</v>
       </c>
       <c r="F21" t="n">
-        <v>2.353</v>
+        <v>1.839</v>
       </c>
       <c r="G21" t="n">
-        <v>0.349</v>
+        <v>0.246</v>
       </c>
       <c r="H21" t="n">
-        <v>4.947</v>
+        <v>4.355</v>
       </c>
       <c r="I21" t="n">
         <v>7</v>
@@ -993,22 +993,22 @@
         <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>2.235</v>
+        <v>2.036</v>
       </c>
       <c r="E22" t="n">
-        <v>1.325</v>
+        <v>0.966</v>
       </c>
       <c r="F22" t="n">
-        <v>1.236</v>
+        <v>0.881</v>
       </c>
       <c r="G22" t="n">
-        <v>0.684</v>
+        <v>0.762</v>
       </c>
       <c r="H22" t="n">
-        <v>5.962</v>
+        <v>5.872</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1022,22 +1022,22 @@
         <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>1.244</v>
+        <v>1.166</v>
       </c>
       <c r="E23" t="n">
-        <v>1.455</v>
+        <v>1.368</v>
       </c>
       <c r="F23" t="n">
-        <v>1.372</v>
+        <v>1.302</v>
       </c>
       <c r="G23" t="n">
-        <v>0.487</v>
+        <v>0.527</v>
       </c>
       <c r="H23" t="n">
-        <v>4.731</v>
+        <v>4.645</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1048,25 +1048,25 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>1.526</v>
+        <v>0.804</v>
       </c>
       <c r="E24" t="n">
-        <v>1.836</v>
+        <v>1.893</v>
       </c>
       <c r="F24" t="n">
-        <v>2.037</v>
+        <v>1.865</v>
       </c>
       <c r="G24" t="n">
-        <v>0.319</v>
+        <v>0.128</v>
       </c>
       <c r="H24" t="n">
-        <v>4.644</v>
+        <v>5.179</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1077,25 +1077,25 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>1.32</v>
+        <v>0.804</v>
       </c>
       <c r="E25" t="n">
-        <v>1.544</v>
+        <v>1.274</v>
       </c>
       <c r="F25" t="n">
-        <v>1.573</v>
+        <v>1.201</v>
       </c>
       <c r="G25" t="n">
-        <v>0.469</v>
+        <v>0.438</v>
       </c>
       <c r="H25" t="n">
-        <v>6.449</v>
+        <v>6.342</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1106,25 +1106,25 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.32</v>
+        <v>1.208</v>
       </c>
       <c r="E26" t="n">
-        <v>2.015</v>
+        <v>1.434</v>
       </c>
       <c r="F26" t="n">
-        <v>1.827</v>
+        <v>1.52</v>
       </c>
       <c r="G26" t="n">
-        <v>0.19</v>
+        <v>0.398</v>
       </c>
       <c r="H26" t="n">
-        <v>5.062</v>
+        <v>5.111</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1138,22 +1138,22 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>1.523</v>
+        <v>1.44</v>
       </c>
       <c r="E27" t="n">
-        <v>2.395</v>
+        <v>2.288</v>
       </c>
       <c r="F27" t="n">
-        <v>2.353</v>
+        <v>2.232</v>
       </c>
       <c r="G27" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
-        <v>4.947</v>
+        <v>4.868</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1164,25 +1164,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>1.244</v>
+        <v>1.166</v>
       </c>
       <c r="E28" t="n">
-        <v>1.541</v>
+        <v>1.833</v>
       </c>
       <c r="F28" t="n">
-        <v>1.624</v>
+        <v>1.839</v>
       </c>
       <c r="G28" t="n">
-        <v>0.417</v>
+        <v>0.199</v>
       </c>
       <c r="H28" t="n">
-        <v>4.733</v>
+        <v>4.355</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1193,25 +1193,25 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>0.403</v>
+        <v>2.036</v>
       </c>
       <c r="E29" t="n">
-        <v>1.279</v>
+        <v>0.966</v>
       </c>
       <c r="F29" t="n">
-        <v>1.247</v>
+        <v>0.881</v>
       </c>
       <c r="G29" t="n">
-        <v>0.165</v>
+        <v>0.748</v>
       </c>
       <c r="H29" t="n">
-        <v>4.711</v>
+        <v>5.872</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1222,25 +1222,25 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>0.403</v>
+        <v>0.573</v>
       </c>
       <c r="E30" t="n">
-        <v>0.857</v>
+        <v>0.419</v>
       </c>
       <c r="F30" t="n">
-        <v>0.715</v>
+        <v>0.481</v>
       </c>
       <c r="G30" t="n">
-        <v>0.467</v>
+        <v>0.766</v>
       </c>
       <c r="H30" t="n">
-        <v>5.22</v>
+        <v>4.414</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1251,25 +1251,25 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>1.244</v>
+        <v>0.804</v>
       </c>
       <c r="E31" t="n">
-        <v>1.455</v>
+        <v>1.893</v>
       </c>
       <c r="F31" t="n">
-        <v>1.372</v>
+        <v>1.865</v>
       </c>
       <c r="G31" t="n">
-        <v>0.487</v>
+        <v>0.128</v>
       </c>
       <c r="H31" t="n">
-        <v>4.731</v>
+        <v>5.179</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1280,25 +1280,25 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>1.526</v>
+        <v>0.804</v>
       </c>
       <c r="E32" t="n">
-        <v>1.836</v>
+        <v>1.274</v>
       </c>
       <c r="F32" t="n">
-        <v>2.037</v>
+        <v>1.201</v>
       </c>
       <c r="G32" t="n">
-        <v>0.319</v>
+        <v>0.438</v>
       </c>
       <c r="H32" t="n">
-        <v>4.644</v>
+        <v>6.342</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1309,25 +1309,25 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>1.32</v>
+        <v>1.208</v>
       </c>
       <c r="E33" t="n">
-        <v>1.544</v>
+        <v>1.434</v>
       </c>
       <c r="F33" t="n">
-        <v>1.573</v>
+        <v>1.52</v>
       </c>
       <c r="G33" t="n">
-        <v>0.469</v>
+        <v>0.398</v>
       </c>
       <c r="H33" t="n">
-        <v>6.449</v>
+        <v>5.111</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1338,25 +1338,25 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="E34" t="n">
-        <v>2.015</v>
+        <v>2.288</v>
       </c>
       <c r="F34" t="n">
-        <v>1.827</v>
+        <v>2.232</v>
       </c>
       <c r="G34" t="n">
-        <v>0.19</v>
+        <v>0.318</v>
       </c>
       <c r="H34" t="n">
-        <v>5.062</v>
+        <v>4.868</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1367,25 +1367,25 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1.523</v>
+        <v>0.573</v>
       </c>
       <c r="E35" t="n">
-        <v>2.395</v>
+        <v>1.297</v>
       </c>
       <c r="F35" t="n">
-        <v>2.353</v>
+        <v>1.254</v>
       </c>
       <c r="G35" t="n">
-        <v>0.332</v>
+        <v>0.182</v>
       </c>
       <c r="H35" t="n">
-        <v>4.947</v>
+        <v>4.299</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1396,25 +1396,25 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>1.244</v>
+        <v>1.166</v>
       </c>
       <c r="E36" t="n">
-        <v>1.541</v>
+        <v>1.833</v>
       </c>
       <c r="F36" t="n">
-        <v>1.624</v>
+        <v>1.839</v>
       </c>
       <c r="G36" t="n">
-        <v>0.417</v>
+        <v>0.184</v>
       </c>
       <c r="H36" t="n">
-        <v>4.733</v>
+        <v>4.355</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1425,25 +1425,25 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>0.403</v>
+        <v>2.036</v>
       </c>
       <c r="E37" t="n">
-        <v>1.279</v>
+        <v>0.966</v>
       </c>
       <c r="F37" t="n">
-        <v>1.247</v>
+        <v>0.881</v>
       </c>
       <c r="G37" t="n">
-        <v>0.165</v>
+        <v>0.748</v>
       </c>
       <c r="H37" t="n">
-        <v>4.711</v>
+        <v>5.872</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1454,25 +1454,25 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>0.403</v>
+        <v>0.573</v>
       </c>
       <c r="E38" t="n">
-        <v>0.857</v>
+        <v>0.419</v>
       </c>
       <c r="F38" t="n">
-        <v>0.715</v>
+        <v>0.481</v>
       </c>
       <c r="G38" t="n">
-        <v>0.467</v>
+        <v>0.766</v>
       </c>
       <c r="H38" t="n">
-        <v>5.22</v>
+        <v>4.414</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1486,22 +1486,22 @@
         <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>0.574</v>
+        <v>0.804</v>
       </c>
       <c r="E39" t="n">
-        <v>0.513</v>
+        <v>1.893</v>
       </c>
       <c r="F39" t="n">
-        <v>0.581</v>
+        <v>1.865</v>
       </c>
       <c r="G39" t="n">
-        <v>0.723</v>
+        <v>0.107</v>
       </c>
       <c r="H39" t="n">
-        <v>4.495</v>
+        <v>5.179</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1512,25 +1512,25 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>1.526</v>
+        <v>0.804</v>
       </c>
       <c r="E40" t="n">
-        <v>1.836</v>
+        <v>1.274</v>
       </c>
       <c r="F40" t="n">
-        <v>2.037</v>
+        <v>1.201</v>
       </c>
       <c r="G40" t="n">
-        <v>0.319</v>
+        <v>0.438</v>
       </c>
       <c r="H40" t="n">
-        <v>4.644</v>
+        <v>6.342</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1541,25 +1541,25 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>1.32</v>
+        <v>1.208</v>
       </c>
       <c r="E41" t="n">
-        <v>1.544</v>
+        <v>1.434</v>
       </c>
       <c r="F41" t="n">
-        <v>1.573</v>
+        <v>1.52</v>
       </c>
       <c r="G41" t="n">
-        <v>0.469</v>
+        <v>0.286</v>
       </c>
       <c r="H41" t="n">
-        <v>6.449</v>
+        <v>5.111</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1570,25 +1570,25 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="E42" t="n">
-        <v>2.015</v>
+        <v>2.288</v>
       </c>
       <c r="F42" t="n">
-        <v>1.827</v>
+        <v>2.232</v>
       </c>
       <c r="G42" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="H42" t="n">
-        <v>5.062</v>
+        <v>4.868</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1599,25 +1599,25 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>1.523</v>
+        <v>0.573</v>
       </c>
       <c r="E43" t="n">
-        <v>2.395</v>
+        <v>1.297</v>
       </c>
       <c r="F43" t="n">
-        <v>2.353</v>
+        <v>1.254</v>
       </c>
       <c r="G43" t="n">
-        <v>0.318</v>
+        <v>0.176</v>
       </c>
       <c r="H43" t="n">
-        <v>4.947</v>
+        <v>4.299</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1628,25 +1628,25 @@
         <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.574</v>
+        <v>1.193</v>
       </c>
       <c r="E44" t="n">
-        <v>1.425</v>
+        <v>1.276</v>
       </c>
       <c r="F44" t="n">
-        <v>1.365</v>
+        <v>1.253</v>
       </c>
       <c r="G44" t="n">
-        <v>0.149</v>
+        <v>0.375</v>
       </c>
       <c r="H44" t="n">
-        <v>4.385</v>
+        <v>4.184</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1657,25 +1657,25 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.244</v>
+        <v>1.166</v>
       </c>
       <c r="E45" t="n">
-        <v>1.541</v>
+        <v>1.31</v>
       </c>
       <c r="F45" t="n">
-        <v>1.624</v>
+        <v>1.235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.399</v>
+        <v>0.35</v>
       </c>
       <c r="H45" t="n">
-        <v>4.733</v>
+        <v>4.28</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1686,22 +1686,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
-        <v>0.403</v>
+        <v>2.036</v>
       </c>
       <c r="E46" t="n">
-        <v>1.279</v>
+        <v>0.966</v>
       </c>
       <c r="F46" t="n">
-        <v>1.247</v>
+        <v>0.881</v>
       </c>
       <c r="G46" t="n">
-        <v>0.165</v>
+        <v>0.741</v>
       </c>
       <c r="H46" t="n">
-        <v>4.711</v>
+        <v>5.872</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -1715,22 +1715,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>0.403</v>
+        <v>0.573</v>
       </c>
       <c r="E47" t="n">
-        <v>0.857</v>
+        <v>0.419</v>
       </c>
       <c r="F47" t="n">
-        <v>0.715</v>
+        <v>0.481</v>
       </c>
       <c r="G47" t="n">
-        <v>0.467</v>
+        <v>0.766</v>
       </c>
       <c r="H47" t="n">
-        <v>5.22</v>
+        <v>4.414</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>0.574</v>
+        <v>0.804</v>
       </c>
       <c r="E48" t="n">
-        <v>0.513</v>
+        <v>1.893</v>
       </c>
       <c r="F48" t="n">
-        <v>0.581</v>
+        <v>1.865</v>
       </c>
       <c r="G48" t="n">
-        <v>0.723</v>
+        <v>0.107</v>
       </c>
       <c r="H48" t="n">
-        <v>4.495</v>
+        <v>5.179</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -1773,22 +1773,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>1.526</v>
+        <v>0.804</v>
       </c>
       <c r="E49" t="n">
-        <v>1.836</v>
+        <v>1.274</v>
       </c>
       <c r="F49" t="n">
-        <v>2.037</v>
+        <v>1.201</v>
       </c>
       <c r="G49" t="n">
-        <v>0.269</v>
+        <v>0.438</v>
       </c>
       <c r="H49" t="n">
-        <v>4.644</v>
+        <v>6.342</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -1802,22 +1802,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>1.32</v>
+        <v>1.208</v>
       </c>
       <c r="E50" t="n">
-        <v>1.544</v>
+        <v>1.434</v>
       </c>
       <c r="F50" t="n">
-        <v>1.573</v>
+        <v>1.52</v>
       </c>
       <c r="G50" t="n">
-        <v>0.384</v>
+        <v>0.286</v>
       </c>
       <c r="H50" t="n">
-        <v>6.449</v>
+        <v>5.111</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -1831,22 +1831,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>1.198</v>
+        <v>1.597</v>
       </c>
       <c r="E51" t="n">
-        <v>1.686</v>
+        <v>1.926</v>
       </c>
       <c r="F51" t="n">
-        <v>1.633</v>
+        <v>1.743</v>
       </c>
       <c r="G51" t="n">
-        <v>0.217</v>
+        <v>0.286</v>
       </c>
       <c r="H51" t="n">
-        <v>5.193</v>
+        <v>5.577</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -1860,22 +1860,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
-        <v>1.523</v>
+        <v>0.573</v>
       </c>
       <c r="E52" t="n">
-        <v>2.395</v>
+        <v>1.297</v>
       </c>
       <c r="F52" t="n">
-        <v>2.353</v>
+        <v>1.254</v>
       </c>
       <c r="G52" t="n">
-        <v>0.27</v>
+        <v>0.176</v>
       </c>
       <c r="H52" t="n">
-        <v>4.947</v>
+        <v>4.299</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -1889,22 +1889,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0.574</v>
+        <v>1.193</v>
       </c>
       <c r="E53" t="n">
-        <v>1.425</v>
+        <v>1.276</v>
       </c>
       <c r="F53" t="n">
-        <v>1.365</v>
+        <v>1.253</v>
       </c>
       <c r="G53" t="n">
-        <v>0.141</v>
+        <v>0.329</v>
       </c>
       <c r="H53" t="n">
-        <v>4.385</v>
+        <v>4.184</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -1918,22 +1918,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1.198</v>
+        <v>1.166</v>
       </c>
       <c r="E54" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="F54" t="n">
-        <v>1.572</v>
+        <v>1.235</v>
       </c>
       <c r="G54" t="n">
-        <v>0.333</v>
+        <v>0.35</v>
       </c>
       <c r="H54" t="n">
-        <v>4.328</v>
+        <v>4.28</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -1947,22 +1947,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>1.244</v>
+        <v>1.44</v>
       </c>
       <c r="E55" t="n">
-        <v>1.541</v>
+        <v>1.624</v>
       </c>
       <c r="F55" t="n">
-        <v>1.624</v>
+        <v>1.566</v>
       </c>
       <c r="G55" t="n">
-        <v>0.399</v>
+        <v>0.372</v>
       </c>
       <c r="H55" t="n">
-        <v>4.733</v>
+        <v>4.183</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
